--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/113.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/113.xlsx
@@ -479,13 +479,13 @@
         <v>5.720968158359986</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.62966328835198</v>
+        <v>-17.48054151821413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3540275195499766</v>
+        <v>-0.4968014564923648</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.518177820577902</v>
+        <v>-12.01118509116204</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>5.710405018168108</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.95930457635372</v>
+        <v>-18.10202229312262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682599256278094</v>
+        <v>-0.5837915556753825</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.968325885276579</v>
+        <v>-11.62719271382081</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>5.64051375449844</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.2155569822762</v>
+        <v>-18.64070773673991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02958813485463378</v>
+        <v>-1.062474218015025</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.697391791732754</v>
+        <v>-10.8237039912708</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>5.527953043999547</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.22271448832937</v>
+        <v>-18.80226985766398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1853567826414109</v>
+        <v>-0.4145585829771216</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.101734751095304</v>
+        <v>-10.0300421725233</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5.406316573548387</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.27237213107662</v>
+        <v>-19.32839544264017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07466966717445651</v>
+        <v>-0.5064034659789858</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.202617054228444</v>
+        <v>-9.235270549217002</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>5.301459220389059</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.62223924048679</v>
+        <v>-20.06922665318379</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2005716414191212</v>
+        <v>-1.318110609072274</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.44703570996734</v>
+        <v>-8.030233025666673</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>5.249735296386717</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.11823387614218</v>
+        <v>-20.93466398174447</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4353661962027116</v>
+        <v>-1.066561427755766</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.971056668425101</v>
+        <v>-7.790544575009301</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5.285676183092288</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.05547369499159</v>
+        <v>-20.89050158271563</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6409684909839528</v>
+        <v>-1.3429027628944</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.629021748015731</v>
+        <v>-7.547834718108176</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>5.423748462776714</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.33428397859802</v>
+        <v>-21.53465268246601</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6175599261051641</v>
+        <v>-1.08173690507067</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.373727587439166</v>
+        <v>-7.260082440942162</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.677797333176627</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.88241009447532</v>
+        <v>-22.44213058107529</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9718662537504904</v>
+        <v>-1.625203797403802</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.81364296076539</v>
+        <v>-6.737970730603714</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>6.045076621113624</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.53881793444106</v>
+        <v>-23.28893590446616</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8932021332618288</v>
+        <v>-1.444672329836101</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.584915663503641</v>
+        <v>-6.468136663604944</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>6.495129964157711</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.01779882619958</v>
+        <v>-23.73761473166355</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.808348530079653</v>
+        <v>-1.293421124394353</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.542073296328865</v>
+        <v>-6.068514131310184</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>7.002901141945067</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.52059895941371</v>
+        <v>-24.14575391392048</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7542125570423038</v>
+        <v>-1.096799935227635</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.269408494354152</v>
+        <v>-5.334097297775954</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>7.531454481703492</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.08643305816298</v>
+        <v>-24.52537063011582</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6595320500576289</v>
+        <v>-1.047640971180805</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.132438077970662</v>
+        <v>-4.934772994900074</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>8.032904986049394</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.81966186302855</v>
+        <v>-25.17042619613658</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5201220192475492</v>
+        <v>-0.9874279626078807</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.952649739446732</v>
+        <v>-4.868756735176122</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.480896931588468</v>
       </c>
       <c r="E17" t="n">
-        <v>-26.65195416953499</v>
+        <v>-26.05977565728335</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4286927018293727</v>
+        <v>-0.7677746620911259</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.039141159929325</v>
+        <v>-4.668943024525308</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.848606706552532</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.36490581842002</v>
+        <v>-26.30680739625483</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3528544273097881</v>
+        <v>-0.7496315576080045</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.362539186162015</v>
+        <v>-4.955795724427809</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>9.111446479621373</v>
       </c>
       <c r="E19" t="n">
-        <v>-27.94447069295502</v>
+        <v>-26.98077165987965</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1302970567140858</v>
+        <v>-0.6924252882582327</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.286109341811533</v>
+        <v>-4.34525654688747</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>9.270466560828812</v>
       </c>
       <c r="E20" t="n">
-        <v>-28.47401613823462</v>
+        <v>-27.55770624872025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09535994423524058</v>
+        <v>-0.5409589665143407</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.568962834096897</v>
+        <v>-4.355562573362927</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>9.325334768397225</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.04870422841987</v>
+        <v>-28.09077177894402</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5982480795729791</v>
+        <v>-0.126493409371626</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.979126065196727</v>
+        <v>-4.909971063064215</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>9.278437109249445</v>
       </c>
       <c r="E22" t="n">
-        <v>-29.48707458463836</v>
+        <v>-28.70819467815297</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6451825454953626</v>
+        <v>-0.1231297726471885</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.153375158940443</v>
+        <v>-4.920619320020355</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.149901257454593</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.80459113561015</v>
+        <v>-28.9240101082792</v>
       </c>
       <c r="F23" t="n">
-        <v>1.056372468037244</v>
+        <v>0.3375417883947394</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.538120443339182</v>
+        <v>-5.312561222527194</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>8.951075244465439</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.90042055920856</v>
+        <v>-29.05674420021251</v>
       </c>
       <c r="F24" t="n">
-        <v>1.397444254093832</v>
+        <v>0.7499001835778139</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.721355531704287</v>
+        <v>-5.444002172144201</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>8.696775434070007</v>
       </c>
       <c r="E25" t="n">
-        <v>-30.34506840024417</v>
+        <v>-29.78397419365237</v>
       </c>
       <c r="F25" t="n">
-        <v>1.707304620312034</v>
+        <v>1.112644937075435</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.917531821246116</v>
+        <v>-5.654469028758023</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.410645874101405</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.06204134821503</v>
+        <v>-29.69283821664621</v>
       </c>
       <c r="F26" t="n">
-        <v>1.721727190569433</v>
+        <v>0.8382689826973015</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.936427832786742</v>
+        <v>-5.26687834236274</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.104244838876323</v>
       </c>
       <c r="E27" t="n">
-        <v>-30.15176440223665</v>
+        <v>-29.7898141123549</v>
       </c>
       <c r="F27" t="n">
-        <v>1.854532173102311</v>
+        <v>1.184796900417366</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.201881349632756</v>
+        <v>-5.559451180299531</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.792480788975879</v>
       </c>
       <c r="E28" t="n">
-        <v>-30.02715339521272</v>
+        <v>-29.54296571114093</v>
       </c>
       <c r="F28" t="n">
-        <v>1.990994132771641</v>
+        <v>0.9698614915271843</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.266768248770451</v>
+        <v>-6.033362171937065</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.492352490616164</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.76003028252166</v>
+        <v>-29.37088000293583</v>
       </c>
       <c r="F29" t="n">
-        <v>1.93302517835063</v>
+        <v>0.8588174785589451</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.770164840822349</v>
+        <v>-6.474414148422063</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>7.206009362355526</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.681439497136</v>
+        <v>-29.17354012975967</v>
       </c>
       <c r="F30" t="n">
-        <v>2.226311811289992</v>
+        <v>1.561098869956943</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.069826738716167</v>
+        <v>-6.661389327040358</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.942845144400928</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.35303023886472</v>
+        <v>-28.97594358372301</v>
       </c>
       <c r="F31" t="n">
-        <v>2.087879581853294</v>
+        <v>1.299830342989008</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.014703186291701</v>
+        <v>-6.523876230894642</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.71071573128067</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.14410586391741</v>
+        <v>-28.84537776633518</v>
       </c>
       <c r="F32" t="n">
-        <v>1.939850231936844</v>
+        <v>1.029727380612558</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.20870875678462</v>
+        <v>-6.717490680838207</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.504031699717927</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.5491308397379</v>
+        <v>-28.30755523242989</v>
       </c>
       <c r="F33" t="n">
-        <v>2.022626007200581</v>
+        <v>1.251668736343029</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.696812535356807</v>
+        <v>-7.147058380192822</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.329388463967014</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.87525213373324</v>
+        <v>-27.74673236571921</v>
       </c>
       <c r="F34" t="n">
-        <v>1.928771742376415</v>
+        <v>0.8383374287934383</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.565699149199882</v>
+        <v>-6.687139726208399</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.188453303578329</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.28948799849099</v>
+        <v>-27.2994689060098</v>
       </c>
       <c r="F35" t="n">
-        <v>2.057768188559965</v>
+        <v>1.482156076076867</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.707710131663161</v>
+        <v>-6.976080032043073</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.071541611187731</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.69235692228317</v>
+        <v>-26.57371783714718</v>
       </c>
       <c r="F36" t="n">
-        <v>1.961415641226806</v>
+        <v>1.220027083900355</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.682453522188678</v>
+        <v>-6.488758494569591</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.983780893145552</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.88631858265207</v>
+        <v>-25.87600766716974</v>
       </c>
       <c r="F37" t="n">
-        <v>2.229127879245334</v>
+        <v>1.386835109192626</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.552454829597409</v>
+        <v>-6.135948203025541</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.923705904441755</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.35986054520894</v>
+        <v>-24.92968660900282</v>
       </c>
       <c r="F38" t="n">
-        <v>1.906062305479595</v>
+        <v>0.8018654375662528</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.397849765444958</v>
+        <v>-6.079934851351297</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.880100160114234</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.63830668874156</v>
+        <v>-24.51969449314333</v>
       </c>
       <c r="F39" t="n">
-        <v>1.837185976738497</v>
+        <v>0.7443364937632646</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.483236270375628</v>
+        <v>-6.452496730637684</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.857568916127063</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.02685815592397</v>
+        <v>-23.934172363741</v>
       </c>
       <c r="F40" t="n">
-        <v>1.994313768434276</v>
+        <v>0.8894324395595664</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.332268627332161</v>
+        <v>-6.106003035965687</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.851079921258872</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.44047556131306</v>
+        <v>-23.33048757382808</v>
       </c>
       <c r="F41" t="n">
-        <v>2.075676620713475</v>
+        <v>1.250378038530163</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.422192130635328</v>
+        <v>-6.295393383976238</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.848486036957105</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.80143347373861</v>
+        <v>-22.89286279115678</v>
       </c>
       <c r="F42" t="n">
-        <v>2.115742031987843</v>
+        <v>1.230205996197272</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.156308381185025</v>
+        <v>-6.051343939193578</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.850284969114123</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.12862790474124</v>
+        <v>-22.08271524125404</v>
       </c>
       <c r="F43" t="n">
-        <v>1.846137748311818</v>
+        <v>0.6812683051800618</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.082406153384739</v>
+        <v>-6.154658432305225</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.846437628396084</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.48366522985095</v>
+        <v>-21.55638920699631</v>
       </c>
       <c r="F44" t="n">
-        <v>1.988974972935605</v>
+        <v>0.9198273952511766</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.990561270382875</v>
+        <v>-6.000874721306415</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.824596690936577</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.72560027010146</v>
+        <v>-20.98650701056124</v>
       </c>
       <c r="F45" t="n">
-        <v>1.994773335079766</v>
+        <v>0.7991911508100503</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.876930972782038</v>
+        <v>-5.918485177585164</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.782800178733461</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.21413681671915</v>
+        <v>-20.01864498813869</v>
       </c>
       <c r="F46" t="n">
-        <v>1.944030332808056</v>
+        <v>0.8674661317065175</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.71759823898928</v>
+        <v>-5.631133798982238</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.7111973048491</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.77150080200927</v>
+        <v>-20.15481849640287</v>
       </c>
       <c r="F47" t="n">
-        <v>2.054556111048402</v>
+        <v>0.8635060361443164</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.870101030188957</v>
+        <v>-6.17268420062354</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.601897638681397</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.01674569990868</v>
+        <v>-18.8657047217622</v>
       </c>
       <c r="F48" t="n">
-        <v>2.015140937687334</v>
+        <v>0.7041195232760222</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.80234917302725</v>
+        <v>-5.747369937243141</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.454690027704413</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.37318128098233</v>
+        <v>-18.43156580098702</v>
       </c>
       <c r="F49" t="n">
-        <v>2.070259601104933</v>
+        <v>0.9637600109572744</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.393540196829556</v>
+        <v>-5.533265659520334</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.26384579503802</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.07463407665416</v>
+        <v>-18.3944484608534</v>
       </c>
       <c r="F50" t="n">
-        <v>2.023882481965378</v>
+        <v>1.002803619796457</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.458573766173259</v>
+        <v>-6.055172031570373</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.029546575136405</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.6651406394951</v>
+        <v>-17.80518135219101</v>
       </c>
       <c r="F51" t="n">
-        <v>2.095609101709887</v>
+        <v>1.260239165380731</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.485761533360173</v>
+        <v>-6.149412527937025</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.757175246930674</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.12359512686067</v>
+        <v>-17.09060899752959</v>
       </c>
       <c r="F52" t="n">
-        <v>2.046474582697392</v>
+        <v>1.351091579988611</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.392557506449306</v>
+        <v>-6.058819230693091</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.448253735188215</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.01339202307354</v>
+        <v>-17.12392757932762</v>
       </c>
       <c r="F53" t="n">
-        <v>2.03967886315238</v>
+        <v>1.219151951671178</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.424653836530602</v>
+        <v>-6.490552760089749</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.112398246134147</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.39372506971267</v>
+        <v>-16.10715104320158</v>
       </c>
       <c r="F54" t="n">
-        <v>2.177969311389937</v>
+        <v>1.662506650390493</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.210564225828398</v>
+        <v>-5.85939664059163</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.761112882619843</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.22571434873113</v>
+        <v>-16.02091385107607</v>
       </c>
       <c r="F55" t="n">
-        <v>2.002028621270268</v>
+        <v>1.529393660424999</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.471818085775731</v>
+        <v>-6.62263905861319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.401697554566737</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.95112327805086</v>
+        <v>-16.00295652885389</v>
       </c>
       <c r="F56" t="n">
-        <v>1.990524788112417</v>
+        <v>1.222823595828231</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.211644696345985</v>
+        <v>-6.146058669226321</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.048478696566613</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.01120917244524</v>
+        <v>-16.16673825889554</v>
       </c>
       <c r="F57" t="n">
-        <v>1.961865429858562</v>
+        <v>1.349434206660727</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.331723594004283</v>
+        <v>-6.465349929690802</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.712060698986121</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.56696956348302</v>
+        <v>-15.45823805076283</v>
       </c>
       <c r="F58" t="n">
-        <v>1.983709512539938</v>
+        <v>1.411167696369262</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.613291277483649</v>
+        <v>-6.746453157517811</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.39651137295663</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.38230688511277</v>
+        <v>-15.19661262629361</v>
       </c>
       <c r="F59" t="n">
-        <v>1.981827244896176</v>
+        <v>1.360273134884677</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.224737456735584</v>
+        <v>-6.373084592098384</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.110737314608857</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.05519321366123</v>
+        <v>-14.77001744311408</v>
       </c>
       <c r="F60" t="n">
-        <v>1.901412859949158</v>
+        <v>1.348031061689922</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.103010963763135</v>
+        <v>-6.167276959028732</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.85629026266749</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.16680435142603</v>
+        <v>-14.71375964109649</v>
       </c>
       <c r="F61" t="n">
-        <v>1.907866349013486</v>
+        <v>1.315489831983736</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.956443426899892</v>
+        <v>-5.982174270040465</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.628344109142416</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.01243395960319</v>
+        <v>-14.62718510749716</v>
       </c>
       <c r="F62" t="n">
-        <v>1.888652552026511</v>
+        <v>0.9488534290200508</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.077905913501527</v>
+        <v>-6.70212942126236</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.427447637666792</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.86468328307815</v>
+        <v>-14.13683238576619</v>
       </c>
       <c r="F63" t="n">
-        <v>1.999471670678872</v>
+        <v>1.321757538787121</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.920611895572272</v>
+        <v>-6.286422056375449</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.247630164035874</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.06198893320624</v>
+        <v>-14.65193326025748</v>
       </c>
       <c r="F64" t="n">
-        <v>1.826821282180637</v>
+        <v>1.120702020392111</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.886403514524468</v>
+        <v>-6.324116299319364</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.0815378380251</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.97054983777433</v>
+        <v>-14.24930887774643</v>
       </c>
       <c r="F65" t="n">
-        <v>1.923080938383326</v>
+        <v>1.252318974256329</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.908985837242748</v>
+        <v>-6.401910176585714</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.9281297138535362</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.05746660185434</v>
+        <v>-14.50955560227918</v>
       </c>
       <c r="F66" t="n">
-        <v>1.889268566891742</v>
+        <v>1.15185966115496</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.882521643072138</v>
+        <v>-6.559825098387067</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.7834805349258691</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.88311972797329</v>
+        <v>-14.13387942561857</v>
       </c>
       <c r="F67" t="n">
-        <v>1.692940718137038</v>
+        <v>0.6738663487835526</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.624621641835508</v>
+        <v>-6.449881111963884</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.6459529012250181</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.98818937455016</v>
+        <v>-14.52369949914517</v>
       </c>
       <c r="F68" t="n">
-        <v>1.731959881941886</v>
+        <v>0.8540555858705698</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.605114504436517</v>
+        <v>-6.370219634074371</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.5195785007236123</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.00779429208649</v>
+        <v>-14.73121339561137</v>
       </c>
       <c r="F69" t="n">
-        <v>1.846015523140145</v>
+        <v>1.200260829137418</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.267841476715522</v>
+        <v>-5.870000896485969</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.4074360668843347</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.0395337246665</v>
+        <v>-14.55361044315695</v>
       </c>
       <c r="F70" t="n">
-        <v>1.708448647918892</v>
+        <v>0.9371100345257211</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.239011003221325</v>
+        <v>-5.578410748929428</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3138206313973911</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.32016271882742</v>
+        <v>-14.72442745408009</v>
       </c>
       <c r="F71" t="n">
-        <v>1.684565849374013</v>
+        <v>0.8446833597066939</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.184141679153938</v>
+        <v>-5.929025876390233</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2455820109188374</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.37936370297889</v>
+        <v>-14.90901679734734</v>
       </c>
       <c r="F72" t="n">
-        <v>1.603643007712837</v>
+        <v>0.8133106026417007</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.13133551598439</v>
+        <v>-6.145770217821173</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2065976860389513</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.59904633753684</v>
+        <v>-15.37138973277895</v>
       </c>
       <c r="F73" t="n">
-        <v>1.543474000201714</v>
+        <v>0.8264180300518997</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.224163089366504</v>
+        <v>-6.287424302783167</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1998392072111541</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.77413634046167</v>
+        <v>-15.60823278143978</v>
       </c>
       <c r="F74" t="n">
-        <v>1.533705764481618</v>
+        <v>0.9192553814477477</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.0416075729559</v>
+        <v>-6.164783565526606</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2289721383883948</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.91413305209578</v>
+        <v>-15.81818629233257</v>
       </c>
       <c r="F75" t="n">
-        <v>1.433916245321017</v>
+        <v>0.9201354026837923</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.952559201881911</v>
+        <v>-6.21336562676314</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2939076234150504</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.83223729806809</v>
+        <v>-15.70170081472146</v>
       </c>
       <c r="F76" t="n">
-        <v>1.249586019417723</v>
+        <v>0.5723901222538659</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.09249235642675</v>
+        <v>-6.320527768279048</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3926400281143612</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.74056353030656</v>
+        <v>-15.51775682036065</v>
       </c>
       <c r="F77" t="n">
-        <v>1.081712190628464</v>
+        <v>0.5868371375455995</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.900290829467723</v>
+        <v>-5.754424774152099</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.5224883382878497</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.07480537377007</v>
+        <v>-16.14654177152832</v>
       </c>
       <c r="F78" t="n">
-        <v>1.042125902027054</v>
+        <v>0.3476375875749188</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.708514646106117</v>
+        <v>-5.505398320378919</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.6765887776984997</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.27061009879002</v>
+        <v>-16.51132524088944</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8991028951423242</v>
+        <v>0.5777386957662708</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.66195174470562</v>
+        <v>-5.48636541664602</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.846500339504945</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.68104222526753</v>
+        <v>-16.74693137081294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.773000741023987</v>
+        <v>0.3149105756077901</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.602447642128398</v>
+        <v>-5.413015646621695</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.023850213121353</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.23297687749416</v>
+        <v>-17.53082984284721</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6997585291507341</v>
+        <v>0.4131356125709784</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.336896345145045</v>
+        <v>-4.980656324346072</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.198313966997302</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.596190975651</v>
+        <v>-17.96824928723009</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4039540576749121</v>
+        <v>0.03742521286229844</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.44089529921806</v>
+        <v>-5.246549851810108</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.360350971536818</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.05160196530413</v>
+        <v>-18.50550225183538</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4132089476739821</v>
+        <v>0.2369358050873636</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.527191159425976</v>
+        <v>-5.030920203944824</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.501614876710847</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.04170407996428</v>
+        <v>-19.83007110427491</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1441522327670517</v>
+        <v>-0.3093178211599104</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.288558734251858</v>
+        <v>-4.608260671293159</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.613651301211168</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.67264997216712</v>
+        <v>-20.50752611880272</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1697070716604162</v>
+        <v>-0.01746366723255569</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.434593369366607</v>
+        <v>-4.902006870878011</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.690242584281543</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.41837507858452</v>
+        <v>-21.56359071411128</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.05378409924686683</v>
+        <v>-0.3661769710221313</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.441726430385436</v>
+        <v>-4.179832110538536</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.726723861676003</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.0980350352093</v>
+        <v>-22.06763754407648</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1077245120095395</v>
+        <v>-0.05173071636276256</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.732162772321385</v>
+        <v>-4.531253924132383</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.719482692436593</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82286452627751</v>
+        <v>-22.6438070033424</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2064140046250846</v>
+        <v>0.05824260410162228</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.068281994421788</v>
+        <v>-4.861775233370167</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.667482364343957</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.71174953177192</v>
+        <v>-23.67757772733783</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5159810304312722</v>
+        <v>-0.7903032057338699</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.826354378619368</v>
+        <v>-4.143321007256415</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.570985203416059</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.89438562585805</v>
+        <v>-24.68527537771201</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7481697445547969</v>
+        <v>-0.7740570359151115</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.278426176582393</v>
+        <v>-4.945025242299995</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.432311554652301</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.28349425794772</v>
+        <v>-26.20536050376634</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8265307466177098</v>
+        <v>-0.6690509464275123</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.591259058975679</v>
+        <v>-5.17821131382437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.255853919993511</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.4113588081038</v>
+        <v>-27.77553839417908</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.003718133488441</v>
+        <v>-0.8253427179490493</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.014500383444507</v>
+        <v>-5.683011050847073</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.046623578123005</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58653183320758</v>
+        <v>-28.88371980268895</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.219347781353725</v>
+        <v>-0.9015525569905196</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.493725725546377</v>
+        <v>-6.053583104338625</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.812252864656255</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.91334473979903</v>
+        <v>-30.21524326739668</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.668667068450676</v>
+        <v>-1.552279370976899</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.552941376718451</v>
+        <v>-5.681094560155242</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.561822177882128</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.70847316966882</v>
+        <v>-32.33340060348071</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.905852347592188</v>
+        <v>-1.616579589290565</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.066595105177136</v>
+        <v>-6.362959458877003</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3045962634850509</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.31669975602333</v>
+        <v>-33.97259904833712</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.924415906665864</v>
+        <v>-1.598979164569671</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.379193315240811</v>
+        <v>-6.461037825634183</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05192315524792485</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.14275115432636</v>
+        <v>-35.71310260448288</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.416474891793386</v>
+        <v>-2.225960072203444</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.861381395504032</v>
+        <v>-6.749332782562425</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1851700306981763</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.91966314461003</v>
+        <v>-37.33285746902957</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.80309755482902</v>
+        <v>-2.502731639946366</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.159987267914596</v>
+        <v>-6.750247026846537</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3986526584416524</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.95106994284752</v>
+        <v>-39.6492200325052</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.059198401538626</v>
+        <v>-2.234413165076341</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.600447674568697</v>
+        <v>-7.301893227668018</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5787817302206588</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.04460868485321</v>
+        <v>-41.51247677306546</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.634218944190827</v>
+        <v>-2.990850085539155</v>
       </c>
       <c r="G100" t="n">
-        <v>-9.031892752560207</v>
+        <v>-7.960124667195113</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.7206374882107606</v>
       </c>
       <c r="E101" t="n">
-        <v>-41.80470004701126</v>
+        <v>-43.39060587251487</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.129152665356095</v>
+        <v>-3.076041030195148</v>
       </c>
       <c r="G101" t="n">
-        <v>-9.402914594683516</v>
+        <v>-8.291178878181391</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.8180734336329051</v>
       </c>
       <c r="E102" t="n">
-        <v>-43.90752790206408</v>
+        <v>-45.33680461457234</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.634636863340166</v>
+        <v>-3.65540301094517</v>
       </c>
       <c r="G102" t="n">
-        <v>-9.72198096083212</v>
+        <v>-8.589237181822861</v>
       </c>
     </row>
   </sheetData>
